--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Projekt3-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1EDE17-9905-4858-94A0-4511D43B441D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76042CA6-1473-4F19-BF60-2307FC11E1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>WBS</t>
   </si>
@@ -539,13 +539,10 @@
     <t>2.8</t>
   </si>
   <si>
-    <t>Diskussion</t>
-  </si>
-  <si>
     <t>Processrapport</t>
   </si>
   <si>
-    <t>2.9</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1256,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1456,6 +1453,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1463,42 +1478,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="23" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2133,11 +2115,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2165,27 +2147,27 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="I1" s="72"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2230,11 +2212,11 @@
       <c r="B4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="83">
         <v>44077</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="53"/>
       <c r="G4" s="56" t="s">
         <v>9</v>
@@ -2244,182 +2226,182 @@
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="77" t="str">
+      <c r="K4" s="75" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="77" t="str">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="75" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="77" t="str">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="75" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="77" t="str">
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="75" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="77" t="str">
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="75" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="77" t="str">
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="75" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="77" t="str">
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="75" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="77" t="str">
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="75" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="79"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="77"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="81">
+      <c r="K5" s="78">
         <f>K6</f>
         <v>44074</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="81">
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="78">
         <f>R6</f>
         <v>44081</v>
       </c>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="81">
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="78">
         <f>Y6</f>
         <v>44088</v>
       </c>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="81">
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="78">
         <f>AF6</f>
         <v>44095</v>
       </c>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="81">
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="78">
         <f>AM6</f>
         <v>44102</v>
       </c>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="81">
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="78">
         <f>AT6</f>
         <v>44109</v>
       </c>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="81">
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="78">
         <f>BA6</f>
         <v>44116</v>
       </c>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="82"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="81">
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="78">
         <f>BH6</f>
         <v>44123</v>
       </c>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="82"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="82"/>
-      <c r="BM5" s="82"/>
-      <c r="BN5" s="83"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="80"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -2929,7 +2911,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="str">
-        <f t="shared" ref="I8:I31" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I30" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="42"/>
@@ -3086,7 +3068,7 @@
         <v>44092</v>
       </c>
       <c r="F10" s="46">
-        <f t="shared" ref="F10:F31" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F30" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44105</v>
       </c>
       <c r="G10" s="28">
@@ -4001,21 +3983,21 @@
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="45">
-        <v>44118</v>
+        <v>44120</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" ref="F21" si="7">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>44120</v>
+        <f t="shared" ref="F21:F22" si="7">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>44129</v>
       </c>
       <c r="G21" s="28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H21" s="29">
         <v>0</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" ref="I21" si="8">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="49"/>
@@ -4084,20 +4066,20 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="45">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="F22" s="46">
-        <f>IF(ISBLANK(E22)," - ",IF(G23=0,E22,E22+G23-1))</f>
-        <v>44121</v>
+        <f t="shared" si="7"/>
+        <v>44129</v>
       </c>
       <c r="G22" s="28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H22" s="29">
         <v>0.2</v>
       </c>
       <c r="I22" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="49"/>
@@ -4170,7 +4152,7 @@
         <v>44120</v>
       </c>
       <c r="F23" s="46">
-        <f>IF(ISBLANK(E23)," - ",IF(G26=0,E23,E23+G26-1))</f>
+        <f>IF(ISBLANK(E23)," - ",IF(G25=0,E23,E23+G25-1))</f>
         <v>44120</v>
       </c>
       <c r="G23" s="28">
@@ -4181,7 +4163,7 @@
       </c>
       <c r="I23" s="30">
         <f>IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="49"/>
@@ -4246,13 +4228,13 @@
         <v>36</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="45">
         <v>44121</v>
       </c>
       <c r="F24" s="46">
-        <f>IF(ISBLANK(E24)," - ",IF(G27=0,E24,E24+G27-1))</f>
+        <f>IF(ISBLANK(E24)," - ",IF(G26=0,E24,E24+G26-1))</f>
         <v>44124</v>
       </c>
       <c r="G24" s="28">
@@ -4319,175 +4301,193 @@
       <c r="BM24" s="49"/>
       <c r="BN24" s="49"/>
     </row>
-    <row r="25" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49"/>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-    </row>
-    <row r="26" spans="1:66" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="str">
+    <row r="25" spans="1:66" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47" t="str">
+      <c r="D25" s="22"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25" t="str">
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="51"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
-      <c r="BM26" s="51"/>
-      <c r="BN26" s="51"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="51"/>
+      <c r="BN25" s="51"/>
+    </row>
+    <row r="26" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="45">
+        <v>43871</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="6"/>
+        <v>43874</v>
+      </c>
+      <c r="G26" s="28">
+        <v>4</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
     </row>
     <row r="27" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="45">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="6"/>
         <v>43874</v>
       </c>
       <c r="G27" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="29">
         <v>0</v>
       </c>
       <c r="I27" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="49"/>
@@ -4550,18 +4550,18 @@
     <row r="28" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="45">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="F28" s="46">
         <f t="shared" si="6"/>
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="G28" s="28">
         <v>3</v>
@@ -4634,28 +4634,28 @@
     <row r="29" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="45">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="F29" s="46">
         <f t="shared" si="6"/>
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="G29" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="29">
         <v>0</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="43"/>
       <c r="K29" s="49"/>
@@ -4718,28 +4718,26 @@
     <row r="30" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>38</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="68"/>
       <c r="D30" s="69"/>
       <c r="E30" s="45">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="F30" s="46">
         <f t="shared" si="6"/>
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="G30" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="29">
         <v>0</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" s="43"/>
       <c r="K30" s="49"/>
@@ -4799,159 +4797,86 @@
       <c r="BM30" s="49"/>
       <c r="BN30" s="49"/>
     </row>
-    <row r="31" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="45">
-        <v>43875</v>
-      </c>
-      <c r="F31" s="46">
-        <f t="shared" si="6"/>
-        <v>43877</v>
-      </c>
-      <c r="G31" s="28">
-        <v>3</v>
-      </c>
-      <c r="H31" s="29">
-        <v>0</v>
-      </c>
-      <c r="I31" s="30">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-    </row>
-    <row r="32" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-      <c r="BF32" s="9"/>
-      <c r="BG32" s="9"/>
-      <c r="BH32" s="9"/>
-      <c r="BI32" s="9"/>
-      <c r="BJ32" s="9"/>
-      <c r="BK32" s="9"/>
-      <c r="BL32" s="9"/>
-      <c r="BM32" s="9"/>
-      <c r="BN32" s="9"/>
+    <row r="31" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -4962,18 +4887,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H20 H23:H31">
+  <conditionalFormatting sqref="H8:H20 H23:H30">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4992,7 +4908,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN21 K26:BN31">
+  <conditionalFormatting sqref="K8:BN21 K25:BN30">
     <cfRule type="expression" dxfId="9" priority="52">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -5000,12 +4916,12 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN20 K24:BN31">
+  <conditionalFormatting sqref="K6:BN20 K24:BN30">
     <cfRule type="expression" dxfId="7" priority="12">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H25">
+  <conditionalFormatting sqref="H21:H24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5040,7 +4956,7 @@
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN25">
+  <conditionalFormatting sqref="K24:BN24">
     <cfRule type="expression" dxfId="1" priority="80">
       <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H23,0)+$E22-1&gt;=K$6)</formula>
     </cfRule>
@@ -5055,8 +4971,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 G13:H13 G12 G14:H14 E16 E26 G15 G11 G16:H16 G26:H26 H20 H18 H19 H27:H30" unlockedFormula="1"/>
-    <ignoredError sqref="A26 A16" formula="1"/>
+    <ignoredError sqref="H9 G13:H13 G12 G14:H14 E16 E25 G15 G11 G16:H16 G25:H25 H20 H18 H19 H26:H29" unlockedFormula="1"/>
+    <ignoredError sqref="A25 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5104,7 +5020,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H20 H23:H31</xm:sqref>
+          <xm:sqref>H8:H20 H23:H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{88410ADA-3982-4E0E-87F9-64ECB1CD1972}">
@@ -5119,7 +5035,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H25</xm:sqref>
+          <xm:sqref>H21:H24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Projekt3-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76042CA6-1473-4F19-BF60-2307FC11E1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8CF1D4-426C-47F8-A82F-B5ECBCD302E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,24 +1453,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1478,9 +1460,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1708,7 +1708,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2118,8 +2118,8 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2147,27 +2147,27 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="I1" s="72"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2212,196 +2212,196 @@
       <c r="B4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="80">
         <v>44077</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="53"/>
       <c r="G4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="75" t="str">
+      <c r="K4" s="77" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="75" t="str">
+        <v>Week 4</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="77" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="75" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="77" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="75" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="77" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="75" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="77" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="75" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="77" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="75" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="77" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="75" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="77" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="77"/>
+        <v>Week 11</v>
+      </c>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="79"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="78">
+      <c r="K5" s="81">
         <f>K6</f>
-        <v>44074</v>
-      </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="78">
+        <v>44095</v>
+      </c>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="81">
         <f>R6</f>
-        <v>44081</v>
-      </c>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="78">
+        <v>44102</v>
+      </c>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="81">
         <f>Y6</f>
-        <v>44088</v>
-      </c>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="78">
+        <v>44109</v>
+      </c>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="81">
         <f>AF6</f>
-        <v>44095</v>
-      </c>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="78">
+        <v>44116</v>
+      </c>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="81">
         <f>AM6</f>
-        <v>44102</v>
-      </c>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="78">
+        <v>44123</v>
+      </c>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="81">
         <f>AT6</f>
-        <v>44109</v>
-      </c>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="78">
+        <v>44130</v>
+      </c>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="81">
         <f>BA6</f>
-        <v>44116</v>
-      </c>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="78">
+        <v>44137</v>
+      </c>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="82"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="81">
         <f>BH6</f>
-        <v>44123</v>
-      </c>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="79"/>
-      <c r="BK5" s="79"/>
-      <c r="BL5" s="79"/>
-      <c r="BM5" s="79"/>
-      <c r="BN5" s="80"/>
+        <v>44144</v>
+      </c>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
+      <c r="BN5" s="83"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -2416,227 +2416,227 @@
       <c r="J6" s="16"/>
       <c r="K6" s="40">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44074</v>
+        <v>44095</v>
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44075</v>
+        <v>44096</v>
       </c>
       <c r="M6" s="31">
         <f t="shared" si="0"/>
-        <v>44076</v>
+        <v>44097</v>
       </c>
       <c r="N6" s="31">
         <f t="shared" si="0"/>
-        <v>44077</v>
+        <v>44098</v>
       </c>
       <c r="O6" s="31">
         <f t="shared" si="0"/>
-        <v>44078</v>
+        <v>44099</v>
       </c>
       <c r="P6" s="31">
         <f t="shared" si="0"/>
-        <v>44079</v>
+        <v>44100</v>
       </c>
       <c r="Q6" s="41">
         <f t="shared" si="0"/>
-        <v>44080</v>
+        <v>44101</v>
       </c>
       <c r="R6" s="40">
         <f t="shared" si="0"/>
-        <v>44081</v>
+        <v>44102</v>
       </c>
       <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>44082</v>
+        <v>44103</v>
       </c>
       <c r="T6" s="31">
         <f t="shared" si="0"/>
-        <v>44083</v>
+        <v>44104</v>
       </c>
       <c r="U6" s="31">
         <f t="shared" si="0"/>
-        <v>44084</v>
+        <v>44105</v>
       </c>
       <c r="V6" s="31">
         <f t="shared" si="0"/>
-        <v>44085</v>
+        <v>44106</v>
       </c>
       <c r="W6" s="31">
         <f t="shared" si="0"/>
-        <v>44086</v>
+        <v>44107</v>
       </c>
       <c r="X6" s="41">
         <f t="shared" si="0"/>
-        <v>44087</v>
+        <v>44108</v>
       </c>
       <c r="Y6" s="40">
         <f t="shared" si="0"/>
-        <v>44088</v>
+        <v>44109</v>
       </c>
       <c r="Z6" s="31">
         <f t="shared" si="0"/>
-        <v>44089</v>
+        <v>44110</v>
       </c>
       <c r="AA6" s="31">
         <f t="shared" si="0"/>
-        <v>44090</v>
+        <v>44111</v>
       </c>
       <c r="AB6" s="31">
         <f t="shared" si="0"/>
-        <v>44091</v>
+        <v>44112</v>
       </c>
       <c r="AC6" s="31">
         <f t="shared" si="0"/>
-        <v>44092</v>
+        <v>44113</v>
       </c>
       <c r="AD6" s="31">
         <f t="shared" si="0"/>
-        <v>44093</v>
+        <v>44114</v>
       </c>
       <c r="AE6" s="41">
         <f t="shared" si="0"/>
-        <v>44094</v>
+        <v>44115</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" si="0"/>
-        <v>44095</v>
+        <v>44116</v>
       </c>
       <c r="AG6" s="31">
         <f t="shared" si="0"/>
-        <v>44096</v>
+        <v>44117</v>
       </c>
       <c r="AH6" s="31">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44118</v>
       </c>
       <c r="AI6" s="31">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44119</v>
       </c>
       <c r="AJ6" s="31">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44120</v>
       </c>
       <c r="AK6" s="31">
         <f t="shared" si="0"/>
-        <v>44100</v>
+        <v>44121</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="0"/>
-        <v>44101</v>
+        <v>44122</v>
       </c>
       <c r="AM6" s="40">
         <f t="shared" si="0"/>
-        <v>44102</v>
+        <v>44123</v>
       </c>
       <c r="AN6" s="31">
         <f t="shared" si="0"/>
-        <v>44103</v>
+        <v>44124</v>
       </c>
       <c r="AO6" s="31">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44125</v>
       </c>
       <c r="AP6" s="31">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44126</v>
       </c>
       <c r="AQ6" s="31">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44127</v>
       </c>
       <c r="AR6" s="31">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44107</v>
+        <v>44128</v>
       </c>
       <c r="AS6" s="41">
         <f t="shared" si="1"/>
-        <v>44108</v>
+        <v>44129</v>
       </c>
       <c r="AT6" s="40">
         <f t="shared" si="1"/>
-        <v>44109</v>
+        <v>44130</v>
       </c>
       <c r="AU6" s="31">
         <f t="shared" si="1"/>
-        <v>44110</v>
+        <v>44131</v>
       </c>
       <c r="AV6" s="31">
         <f t="shared" si="1"/>
-        <v>44111</v>
+        <v>44132</v>
       </c>
       <c r="AW6" s="31">
         <f t="shared" si="1"/>
-        <v>44112</v>
+        <v>44133</v>
       </c>
       <c r="AX6" s="31">
         <f t="shared" si="1"/>
-        <v>44113</v>
+        <v>44134</v>
       </c>
       <c r="AY6" s="31">
         <f t="shared" si="1"/>
-        <v>44114</v>
+        <v>44135</v>
       </c>
       <c r="AZ6" s="41">
         <f t="shared" si="1"/>
-        <v>44115</v>
+        <v>44136</v>
       </c>
       <c r="BA6" s="40">
         <f t="shared" si="1"/>
-        <v>44116</v>
+        <v>44137</v>
       </c>
       <c r="BB6" s="31">
         <f t="shared" si="1"/>
-        <v>44117</v>
+        <v>44138</v>
       </c>
       <c r="BC6" s="31">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44139</v>
       </c>
       <c r="BD6" s="31">
         <f t="shared" si="1"/>
-        <v>44119</v>
+        <v>44140</v>
       </c>
       <c r="BE6" s="31">
         <f t="shared" si="1"/>
-        <v>44120</v>
+        <v>44141</v>
       </c>
       <c r="BF6" s="31">
         <f t="shared" si="1"/>
-        <v>44121</v>
+        <v>44142</v>
       </c>
       <c r="BG6" s="41">
         <f t="shared" si="1"/>
-        <v>44122</v>
+        <v>44143</v>
       </c>
       <c r="BH6" s="40">
         <f t="shared" si="1"/>
-        <v>44123</v>
+        <v>44144</v>
       </c>
       <c r="BI6" s="31">
         <f t="shared" si="1"/>
-        <v>44124</v>
+        <v>44145</v>
       </c>
       <c r="BJ6" s="31">
         <f t="shared" si="1"/>
-        <v>44125</v>
+        <v>44146</v>
       </c>
       <c r="BK6" s="31">
         <f t="shared" si="1"/>
-        <v>44126</v>
+        <v>44147</v>
       </c>
       <c r="BL6" s="31">
         <f t="shared" si="1"/>
-        <v>44127</v>
+        <v>44148</v>
       </c>
       <c r="BM6" s="31">
         <f t="shared" si="1"/>
-        <v>44128</v>
+        <v>44149</v>
       </c>
       <c r="BN6" s="41">
         <f t="shared" si="1"/>
-        <v>44129</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="66" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -3075,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="29">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I10" s="30">
         <f t="shared" si="4"/>
@@ -3153,17 +3153,16 @@
       </c>
       <c r="F11" s="46">
         <f t="shared" si="6"/>
-        <v>44111</v>
+        <v>44120</v>
       </c>
       <c r="G11" s="28">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" s="43"/>
       <c r="K11" s="49"/>
@@ -3233,21 +3232,20 @@
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="45">
-        <v>44109</v>
+        <v>44121</v>
       </c>
       <c r="F12" s="46">
         <f t="shared" si="6"/>
-        <v>44112</v>
+        <v>44176</v>
       </c>
       <c r="G12" s="28">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H12" s="29">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J12" s="43"/>
       <c r="K12" s="49"/>
@@ -3317,21 +3315,21 @@
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="45">
-        <v>44110</v>
+        <v>44121</v>
       </c>
       <c r="F13" s="46">
         <f t="shared" si="6"/>
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="G13" s="28">
         <v>2</v>
       </c>
       <c r="H13" s="29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="49"/>
@@ -3401,21 +3399,21 @@
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="45">
-        <v>44111</v>
+        <v>44121</v>
       </c>
       <c r="F14" s="46">
         <f t="shared" si="6"/>
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="G14" s="28">
         <v>3</v>
       </c>
       <c r="H14" s="29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="49"/>
@@ -3485,21 +3483,21 @@
       </c>
       <c r="D15" s="69"/>
       <c r="E15" s="45">
-        <v>44112</v>
+        <v>44175</v>
       </c>
       <c r="F15" s="46">
         <f t="shared" si="6"/>
-        <v>44116</v>
+        <v>44182</v>
       </c>
       <c r="G15" s="28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15" s="29">
         <v>0</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="49"/>
@@ -4868,15 +4866,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -4887,6 +4876,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H20 H23:H30">
@@ -4971,7 +4969,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 G13:H13 G12 G14:H14 E16 E25 G15 G11 G16:H16 G25:H25 H20 H18 H19 H26:H29" unlockedFormula="1"/>
+    <ignoredError sqref="H9 G13 G14 E16 E25 G16:H16 G25:H25 H20 H18 H19 H26:H29" unlockedFormula="1"/>
     <ignoredError sqref="A25 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Projekt3-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8CF1D4-426C-47F8-A82F-B5ECBCD302E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D0B0B-47CD-4C2D-88D6-87707C60A299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
+    <sheet name="Anden version" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
@@ -426,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>WBS</t>
   </si>
@@ -544,6 +545,72 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>Fase/uge</t>
+  </si>
+  <si>
+    <t>Udarbejdes</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>7sep-13sep</t>
+  </si>
+  <si>
+    <t>31aug-6aug</t>
+  </si>
+  <si>
+    <t>14 - 20</t>
+  </si>
+  <si>
+    <t>21-27</t>
+  </si>
+  <si>
+    <t>oktob</t>
+  </si>
+  <si>
+    <t>28-&gt;04</t>
+  </si>
+  <si>
+    <t>05-&gt;11</t>
+  </si>
+  <si>
+    <t>12-&gt;18</t>
+  </si>
+  <si>
+    <t>19-&gt;25</t>
+  </si>
+  <si>
+    <t>26-&gt;01</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>02-&gt;08</t>
+  </si>
+  <si>
+    <t>09-&gt;15</t>
+  </si>
+  <si>
+    <t>16-&gt;22</t>
+  </si>
+  <si>
+    <t>23-&gt;29</t>
+  </si>
+  <si>
+    <t>30-&gt;06</t>
+  </si>
+  <si>
+    <t>07-&gt;13</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>14-&gt;20</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +622,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -836,8 +903,82 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,8 +1099,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1206,6 +1395,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1256,7 +1751,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1453,6 +1948,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1460,28 +1973,106 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="31" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Farve1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1529,7 +2120,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Ugyldig" xfId="25" builtinId="27" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1571,18 +2188,6 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1708,7 +2313,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,13 +2382,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2117,27 +2722,27 @@
   </sheetPr>
   <dimension ref="A1:BN31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>16</v>
       </c>
@@ -2147,29 +2752,29 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="I1" s="72"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -2180,7 +2785,7 @@
       <c r="F2" s="73"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="4"/>
@@ -2207,203 +2812,203 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="83">
         <v>44077</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="53"/>
       <c r="G4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="77" t="str">
+      <c r="K4" s="75" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 1</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="75" t="str">
+        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 2</v>
+      </c>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="75" t="str">
+        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 3</v>
+      </c>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="75" t="str">
+        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="77" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="75" t="str">
+        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="77" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="75" t="str">
+        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="77" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="75" t="str">
+        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="77" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="75" t="str">
+        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="77" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
-      </c>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="77" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
-      </c>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="77" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
-      </c>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="79"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="77"/>
+    </row>
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52"/>
       <c r="B5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="81">
+      <c r="K5" s="78">
         <f>K6</f>
+        <v>44074</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="78">
+        <f>R6</f>
+        <v>44081</v>
+      </c>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="78">
+        <f>Y6</f>
+        <v>44088</v>
+      </c>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="78">
+        <f>AF6</f>
         <v>44095</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="81">
-        <f>R6</f>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="78">
+        <f>AM6</f>
         <v>44102</v>
       </c>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="81">
-        <f>Y6</f>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="78">
+        <f>AT6</f>
         <v>44109</v>
       </c>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="81">
-        <f>AF6</f>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="78">
+        <f>BA6</f>
         <v>44116</v>
       </c>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="81">
-        <f>AM6</f>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="78">
+        <f>BH6</f>
         <v>44123</v>
       </c>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="81">
-        <f>AT6</f>
-        <v>44130</v>
-      </c>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="81">
-        <f>BA6</f>
-        <v>44137</v>
-      </c>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="82"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="81">
-        <f>BH6</f>
-        <v>44144</v>
-      </c>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="82"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="82"/>
-      <c r="BM5" s="82"/>
-      <c r="BN5" s="83"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="80"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2416,230 +3021,230 @@
       <c r="J6" s="16"/>
       <c r="K6" s="40">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44095</v>
+        <v>44074</v>
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44096</v>
+        <v>44075</v>
       </c>
       <c r="M6" s="31">
         <f t="shared" si="0"/>
-        <v>44097</v>
+        <v>44076</v>
       </c>
       <c r="N6" s="31">
         <f t="shared" si="0"/>
-        <v>44098</v>
+        <v>44077</v>
       </c>
       <c r="O6" s="31">
         <f t="shared" si="0"/>
-        <v>44099</v>
+        <v>44078</v>
       </c>
       <c r="P6" s="31">
         <f t="shared" si="0"/>
-        <v>44100</v>
+        <v>44079</v>
       </c>
       <c r="Q6" s="41">
         <f t="shared" si="0"/>
-        <v>44101</v>
+        <v>44080</v>
       </c>
       <c r="R6" s="40">
         <f t="shared" si="0"/>
-        <v>44102</v>
+        <v>44081</v>
       </c>
       <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>44103</v>
+        <v>44082</v>
       </c>
       <c r="T6" s="31">
         <f t="shared" si="0"/>
-        <v>44104</v>
+        <v>44083</v>
       </c>
       <c r="U6" s="31">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44084</v>
       </c>
       <c r="V6" s="31">
         <f t="shared" si="0"/>
-        <v>44106</v>
+        <v>44085</v>
       </c>
       <c r="W6" s="31">
         <f t="shared" si="0"/>
-        <v>44107</v>
+        <v>44086</v>
       </c>
       <c r="X6" s="41">
         <f t="shared" si="0"/>
-        <v>44108</v>
+        <v>44087</v>
       </c>
       <c r="Y6" s="40">
         <f t="shared" si="0"/>
-        <v>44109</v>
+        <v>44088</v>
       </c>
       <c r="Z6" s="31">
         <f t="shared" si="0"/>
-        <v>44110</v>
+        <v>44089</v>
       </c>
       <c r="AA6" s="31">
         <f t="shared" si="0"/>
-        <v>44111</v>
+        <v>44090</v>
       </c>
       <c r="AB6" s="31">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44091</v>
       </c>
       <c r="AC6" s="31">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44092</v>
       </c>
       <c r="AD6" s="31">
         <f t="shared" si="0"/>
-        <v>44114</v>
+        <v>44093</v>
       </c>
       <c r="AE6" s="41">
         <f t="shared" si="0"/>
-        <v>44115</v>
+        <v>44094</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" si="0"/>
-        <v>44116</v>
+        <v>44095</v>
       </c>
       <c r="AG6" s="31">
         <f t="shared" si="0"/>
-        <v>44117</v>
+        <v>44096</v>
       </c>
       <c r="AH6" s="31">
         <f t="shared" si="0"/>
-        <v>44118</v>
+        <v>44097</v>
       </c>
       <c r="AI6" s="31">
         <f t="shared" si="0"/>
-        <v>44119</v>
+        <v>44098</v>
       </c>
       <c r="AJ6" s="31">
         <f t="shared" si="0"/>
-        <v>44120</v>
+        <v>44099</v>
       </c>
       <c r="AK6" s="31">
         <f t="shared" si="0"/>
-        <v>44121</v>
+        <v>44100</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="0"/>
-        <v>44122</v>
+        <v>44101</v>
       </c>
       <c r="AM6" s="40">
         <f t="shared" si="0"/>
-        <v>44123</v>
+        <v>44102</v>
       </c>
       <c r="AN6" s="31">
         <f t="shared" si="0"/>
-        <v>44124</v>
+        <v>44103</v>
       </c>
       <c r="AO6" s="31">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44104</v>
       </c>
       <c r="AP6" s="31">
         <f t="shared" si="0"/>
-        <v>44126</v>
+        <v>44105</v>
       </c>
       <c r="AQ6" s="31">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44106</v>
       </c>
       <c r="AR6" s="31">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44128</v>
+        <v>44107</v>
       </c>
       <c r="AS6" s="41">
         <f t="shared" si="1"/>
-        <v>44129</v>
+        <v>44108</v>
       </c>
       <c r="AT6" s="40">
         <f t="shared" si="1"/>
-        <v>44130</v>
+        <v>44109</v>
       </c>
       <c r="AU6" s="31">
         <f t="shared" si="1"/>
-        <v>44131</v>
+        <v>44110</v>
       </c>
       <c r="AV6" s="31">
         <f t="shared" si="1"/>
-        <v>44132</v>
+        <v>44111</v>
       </c>
       <c r="AW6" s="31">
         <f t="shared" si="1"/>
-        <v>44133</v>
+        <v>44112</v>
       </c>
       <c r="AX6" s="31">
         <f t="shared" si="1"/>
-        <v>44134</v>
+        <v>44113</v>
       </c>
       <c r="AY6" s="31">
         <f t="shared" si="1"/>
-        <v>44135</v>
+        <v>44114</v>
       </c>
       <c r="AZ6" s="41">
         <f t="shared" si="1"/>
-        <v>44136</v>
+        <v>44115</v>
       </c>
       <c r="BA6" s="40">
         <f t="shared" si="1"/>
-        <v>44137</v>
+        <v>44116</v>
       </c>
       <c r="BB6" s="31">
         <f t="shared" si="1"/>
-        <v>44138</v>
+        <v>44117</v>
       </c>
       <c r="BC6" s="31">
         <f t="shared" si="1"/>
-        <v>44139</v>
+        <v>44118</v>
       </c>
       <c r="BD6" s="31">
         <f t="shared" si="1"/>
-        <v>44140</v>
+        <v>44119</v>
       </c>
       <c r="BE6" s="31">
         <f t="shared" si="1"/>
-        <v>44141</v>
+        <v>44120</v>
       </c>
       <c r="BF6" s="31">
         <f t="shared" si="1"/>
-        <v>44142</v>
+        <v>44121</v>
       </c>
       <c r="BG6" s="41">
         <f t="shared" si="1"/>
-        <v>44143</v>
+        <v>44122</v>
       </c>
       <c r="BH6" s="40">
         <f t="shared" si="1"/>
-        <v>44144</v>
+        <v>44123</v>
       </c>
       <c r="BI6" s="31">
         <f t="shared" si="1"/>
-        <v>44145</v>
+        <v>44124</v>
       </c>
       <c r="BJ6" s="31">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44125</v>
       </c>
       <c r="BK6" s="31">
         <f t="shared" si="1"/>
-        <v>44147</v>
+        <v>44126</v>
       </c>
       <c r="BL6" s="31">
         <f t="shared" si="1"/>
-        <v>44148</v>
+        <v>44127</v>
       </c>
       <c r="BM6" s="31">
         <f t="shared" si="1"/>
-        <v>44149</v>
+        <v>44128</v>
       </c>
       <c r="BN6" s="41">
         <f t="shared" si="1"/>
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="66" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="66" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>0</v>
       </c>
@@ -2893,7 +3498,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -2972,7 +3577,7 @@
       <c r="BM8" s="48"/>
       <c r="BN8" s="48"/>
     </row>
-    <row r="9" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="str">
         <f t="shared" ref="A9:A15" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -3055,7 +3660,7 @@
       <c r="BM9" s="49"/>
       <c r="BN9" s="49"/>
     </row>
-    <row r="10" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -3139,7 +3744,7 @@
       <c r="BM10" s="49"/>
       <c r="BN10" s="49"/>
     </row>
-    <row r="11" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.3</v>
@@ -3222,7 +3827,7 @@
       <c r="BM11" s="49"/>
       <c r="BN11" s="49"/>
     </row>
-    <row r="12" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
@@ -3305,7 +3910,7 @@
       <c r="BM12" s="49"/>
       <c r="BN12" s="49"/>
     </row>
-    <row r="13" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
@@ -3319,17 +3924,17 @@
       </c>
       <c r="F13" s="46">
         <f t="shared" si="6"/>
-        <v>44122</v>
+        <v>44170</v>
       </c>
       <c r="G13" s="28">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H13" s="29">
         <v>0</v>
       </c>
       <c r="I13" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="49"/>
@@ -3389,7 +3994,7 @@
       <c r="BM13" s="49"/>
       <c r="BN13" s="49"/>
     </row>
-    <row r="14" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.2</v>
@@ -3403,17 +4008,17 @@
       </c>
       <c r="F14" s="46">
         <f t="shared" si="6"/>
-        <v>44123</v>
+        <v>44170</v>
       </c>
       <c r="G14" s="28">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H14" s="29">
         <v>0</v>
       </c>
       <c r="I14" s="30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="49"/>
@@ -3473,7 +4078,7 @@
       <c r="BM14" s="49"/>
       <c r="BN14" s="49"/>
     </row>
-    <row r="15" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1.5</v>
@@ -3557,7 +4162,7 @@
       <c r="BM15" s="49"/>
       <c r="BN15" s="49"/>
     </row>
-    <row r="16" spans="1:66" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -3635,7 +4240,7 @@
       <c r="BM16" s="51"/>
       <c r="BN16" s="51"/>
     </row>
-    <row r="17" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -3719,7 +4324,7 @@
       <c r="BM17" s="49"/>
       <c r="BN17" s="49"/>
     </row>
-    <row r="18" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -3733,17 +4338,17 @@
       </c>
       <c r="F18" s="46">
         <f t="shared" si="6"/>
-        <v>44101</v>
+        <v>44116</v>
       </c>
       <c r="G18" s="28">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H18" s="29">
         <v>0</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="49"/>
@@ -3803,7 +4408,7 @@
       <c r="BM18" s="49"/>
       <c r="BN18" s="49"/>
     </row>
-    <row r="19" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -3817,17 +4422,17 @@
       </c>
       <c r="F19" s="46">
         <f t="shared" si="6"/>
-        <v>44099</v>
+        <v>44118</v>
       </c>
       <c r="G19" s="28">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H19" s="29">
         <v>0</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="49"/>
@@ -3887,7 +4492,7 @@
       <c r="BM19" s="49"/>
       <c r="BN19" s="49"/>
     </row>
-    <row r="20" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="27" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -3901,17 +4506,17 @@
       </c>
       <c r="F20" s="46">
         <f t="shared" si="6"/>
-        <v>44098</v>
+        <v>44118</v>
       </c>
       <c r="G20" s="28">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
       </c>
       <c r="I20" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="49"/>
@@ -3971,7 +4576,7 @@
       <c r="BM20" s="49"/>
       <c r="BN20" s="49"/>
     </row>
-    <row r="21" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
@@ -3981,11 +4586,11 @@
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="45">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="F21" s="46">
         <f t="shared" ref="F21:F22" si="7">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="G21" s="28">
         <v>10</v>
@@ -4055,7 +4660,7 @@
       <c r="BM21" s="49"/>
       <c r="BN21" s="49"/>
     </row>
-    <row r="22" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>30</v>
       </c>
@@ -4064,11 +4669,11 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="45">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="F22" s="46">
         <f t="shared" si="7"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="G22" s="28">
         <v>10</v>
@@ -4137,7 +4742,7 @@
       <c r="BM22" s="49"/>
       <c r="BN22" s="49"/>
     </row>
-    <row r="23" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.7</v>
@@ -4214,14 +4819,13 @@
       <c r="BF23" s="49"/>
       <c r="BG23" s="49"/>
       <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
       <c r="BJ23" s="49"/>
       <c r="BK23" s="49"/>
       <c r="BL23" s="49"/>
       <c r="BM23" s="49"/>
       <c r="BN23" s="49"/>
     </row>
-    <row r="24" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
@@ -4299,7 +4903,7 @@
       <c r="BM24" s="49"/>
       <c r="BN24" s="49"/>
     </row>
-    <row r="25" spans="1:66" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -4377,7 +4981,7 @@
       <c r="BM25" s="51"/>
       <c r="BN25" s="51"/>
     </row>
-    <row r="26" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -4387,11 +4991,11 @@
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="45">
-        <v>43871</v>
+        <v>44077</v>
       </c>
       <c r="F26" s="46">
         <f t="shared" si="6"/>
-        <v>43874</v>
+        <v>44080</v>
       </c>
       <c r="G26" s="28">
         <v>4</v>
@@ -4401,7 +5005,7 @@
       </c>
       <c r="I26" s="30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="43"/>
       <c r="K26" s="49"/>
@@ -4461,7 +5065,7 @@
       <c r="BM26" s="49"/>
       <c r="BN26" s="49"/>
     </row>
-    <row r="27" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -4471,11 +5075,11 @@
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="45">
-        <v>43872</v>
+        <v>44077</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="6"/>
-        <v>43874</v>
+        <v>44079</v>
       </c>
       <c r="G27" s="28">
         <v>3</v>
@@ -4485,7 +5089,7 @@
       </c>
       <c r="I27" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="49"/>
@@ -4545,7 +5149,7 @@
       <c r="BM27" s="49"/>
       <c r="BN27" s="49"/>
     </row>
-    <row r="28" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -4629,7 +5233,7 @@
       <c r="BM28" s="49"/>
       <c r="BN28" s="49"/>
     </row>
-    <row r="29" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -4713,7 +5317,7 @@
       <c r="BM29" s="49"/>
       <c r="BN29" s="49"/>
     </row>
-    <row r="30" spans="1:66" s="27" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -4795,7 +5399,7 @@
       <c r="BM30" s="49"/>
       <c r="BN30" s="49"/>
     </row>
-    <row r="31" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="74"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4866,6 +5470,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -4876,15 +5489,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H20 H23:H30">
@@ -4902,20 +5506,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="10" priority="49">
+    <cfRule type="expression" dxfId="12" priority="49">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN21 K25:BN30">
-    <cfRule type="expression" dxfId="9" priority="52">
+    <cfRule type="expression" dxfId="11" priority="52">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="53">
+    <cfRule type="expression" dxfId="10" priority="53">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN20 K24:BN30">
-    <cfRule type="expression" dxfId="7" priority="12">
+  <conditionalFormatting sqref="K24:BN30 K6:BN21 K23:BH23 BJ23:BN23 L22:BN22">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4933,33 +5537,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN23">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="L22:BN22">
+    <cfRule type="expression" dxfId="8" priority="68">
+      <formula>AND(#REF!&lt;=L$6,ROUNDDOWN((#REF!-#REF!+1)*$H22,0)+#REF!-1&gt;=L$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="69">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=L$6,#REF!&gt;=L$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="5" priority="68">
-      <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*$H22,0)+#REF!-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="69">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="3" priority="78">
+  <conditionalFormatting sqref="K23:BH23 BJ23:BN23">
+    <cfRule type="expression" dxfId="6" priority="78">
       <formula>AND(#REF!&lt;=K$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="5" priority="79">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=K$6,#REF!&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="1" priority="80">
+    <cfRule type="expression" dxfId="4" priority="80">
       <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H23,0)+$E22-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="81">
+    <cfRule type="expression" dxfId="3" priority="81">
       <formula>AND(NOT(ISBLANK($E22)),$E22&lt;=K$6,$F22&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="2" priority="85">
+      <formula>BI$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>AND(#REF!&lt;=BI$6,ROUNDDOWN((#REF!-#REF!+1)*#REF!,0)+#REF!-1&gt;=BI$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="91">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=BI$6,#REF!&gt;=BI$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4969,7 +5581,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 G13 G14 E16 E25 G16:H16 G25:H25 H20 H18 H19 H26:H29" unlockedFormula="1"/>
+    <ignoredError sqref="H9 E16 E25 G16:H16 G25:H25 H20 H18 H19 H26:H29" unlockedFormula="1"/>
     <ignoredError sqref="A25 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -4984,13 +5596,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -5039,4 +5651,865 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6939D18E-E11F-41B9-B3F4-DC489D947160}">
+  <dimension ref="B2:U57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="121">
+        <v>6</v>
+      </c>
+      <c r="I3" s="121">
+        <v>7</v>
+      </c>
+      <c r="J3" s="121">
+        <v>8</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="121">
+        <v>10</v>
+      </c>
+      <c r="M3" s="121">
+        <v>11</v>
+      </c>
+      <c r="N3" s="121">
+        <v>12</v>
+      </c>
+      <c r="O3" s="121">
+        <v>13</v>
+      </c>
+      <c r="P3" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="121">
+        <v>15</v>
+      </c>
+      <c r="R3" s="121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C4" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="84">
+        <v>36</v>
+      </c>
+      <c r="D5" s="84">
+        <v>37</v>
+      </c>
+      <c r="E5" s="84">
+        <v>38</v>
+      </c>
+      <c r="F5" s="84">
+        <v>39</v>
+      </c>
+      <c r="G5" s="84">
+        <v>40</v>
+      </c>
+      <c r="H5" s="84">
+        <v>41</v>
+      </c>
+      <c r="I5" s="84">
+        <v>42</v>
+      </c>
+      <c r="J5" s="84">
+        <v>43</v>
+      </c>
+      <c r="K5" s="84">
+        <v>44</v>
+      </c>
+      <c r="L5" s="84">
+        <v>45</v>
+      </c>
+      <c r="M5" s="84">
+        <v>46</v>
+      </c>
+      <c r="N5" s="84">
+        <v>47</v>
+      </c>
+      <c r="O5" s="84">
+        <v>48</v>
+      </c>
+      <c r="P5" s="84">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="84">
+        <v>50</v>
+      </c>
+      <c r="R5" s="139">
+        <v>51</v>
+      </c>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+    </row>
+    <row r="6" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="144"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+    </row>
+    <row r="8" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="145"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+    </row>
+    <row r="10" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+    </row>
+    <row r="12" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+    </row>
+    <row r="13" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="109"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+    </row>
+    <row r="14" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+    </row>
+    <row r="15" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="113"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+    </row>
+    <row r="17" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="136"/>
+    </row>
+    <row r="18" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="136"/>
+    </row>
+    <row r="19" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="138"/>
+    </row>
+    <row r="20" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="108"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="138"/>
+    </row>
+    <row r="21" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="136"/>
+    </row>
+    <row r="22" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="114"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="136"/>
+    </row>
+    <row r="23" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+    </row>
+    <row r="24" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+    </row>
+    <row r="25" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+    </row>
+    <row r="26" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+    </row>
+    <row r="27" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+    </row>
+    <row r="28" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+    </row>
+    <row r="29" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="126"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+    </row>
+    <row r="30" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="111"/>
+    </row>
+    <row r="31" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="113"/>
+    </row>
+    <row r="36" spans="5:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="68"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="68"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="68"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="68"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="68"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="68"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E40" s="68"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="70"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="68"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="70"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="68"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="5:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="68"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="68"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="68"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="68"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="68"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="68"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="5:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E54" s="68"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="68"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="68"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="68"/>
+      <c r="F57" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>